--- a/resource/excel/Server.xlsx
+++ b/resource/excel/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="15660" tabRatio="990"/>
+    <workbookView windowWidth="26136" windowHeight="16260" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>IP</t>
   </si>
   <si>
+    <t>PublicIP</t>
+  </si>
+  <si>
     <t>Port</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>127.0.0.1</t>
   </si>
   <si>
+    <t>106.53.227.90</t>
+  </si>
+  <si>
     <t>ProxyServer_1</t>
   </si>
   <si>
@@ -148,7 +154,10 @@
     <t>GameServer_16005</t>
   </si>
   <si>
-    <t>ProxyServer_2</t>
+    <t>Gateway_1</t>
+  </si>
+  <si>
+    <t>PvpManager_1</t>
   </si>
 </sst>
 </file>
@@ -161,7 +170,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -181,13 +190,6 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -823,48 +825,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,101 +879,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,31 +1007,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1422,30 +1430,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="14.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="21.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="11.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="20.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="22.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="15.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="21.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="11.8796296296296" customWidth="1"/>
+    <col min="10" max="10" width="20.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="20.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="22.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1464,10 +1473,10 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1479,45 +1488,51 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+    <row r="2" s="2" customFormat="1" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:11">
+    <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
@@ -1543,16 +1558,19 @@
       <c r="I3" s="9">
         <v>0</v>
       </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:11">
+    <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -1578,16 +1596,19 @@
       <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:11">
+    <row r="5" s="2" customFormat="1" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -1613,16 +1634,19 @@
       <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:11">
+    <row r="6" s="2" customFormat="1" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -1648,16 +1672,19 @@
       <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="19">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:11">
+    <row r="7" s="3" customFormat="1" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -1683,16 +1710,19 @@
       <c r="I7" s="9">
         <v>0</v>
       </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:11">
+    <row r="8" s="3" customFormat="1" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -1718,16 +1748,19 @@
       <c r="I8" s="9">
         <v>0</v>
       </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:11">
+    <row r="9" s="3" customFormat="1" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -1753,46 +1786,50 @@
       <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="15.15" spans="1:11">
+    <row r="10" s="4" customFormat="1" ht="15.15" spans="1:12">
       <c r="A10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="L10" s="22" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
-        <v>27</v>
+    <row r="11" spans="1:12">
+      <c r="A11" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>5000</v>
@@ -1800,34 +1837,37 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>17001</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11">
-        <v>17001</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0</v>
-      </c>
-      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16" t="s">
-        <v>30</v>
+    <row r="12" spans="1:12">
+      <c r="A12" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>5000</v>
@@ -1835,34 +1875,37 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12">
         <v>15001</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="H12" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>5001</v>
       </c>
-      <c r="J12" s="21">
+      <c r="K12" s="23">
         <v>25001</v>
       </c>
-      <c r="K12" s="21">
+      <c r="L12" s="23">
         <v>35001</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="16" t="s">
-        <v>32</v>
+    <row r="13" spans="1:12">
+      <c r="A13" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>5000</v>
@@ -1870,34 +1913,37 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13">
         <v>13001</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="H13" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>12345</v>
       </c>
-      <c r="J13" s="21">
-        <v>0</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="C14">
         <v>5000</v>
@@ -1905,34 +1951,37 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="18">
+      <c r="E14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="19">
         <v>14001</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="H14" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>4001</v>
       </c>
-      <c r="J14" s="21">
-        <v>0</v>
-      </c>
-      <c r="K14" s="21">
+      <c r="K14" s="23">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="C15">
         <v>5000</v>
@@ -1940,31 +1989,34 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="18">
+      <c r="E15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="19">
         <v>18001</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
+      <c r="H15" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
-        <v>0</v>
-      </c>
-      <c r="K15" s="21">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="16" t="s">
-        <v>38</v>
+    <row r="16" spans="1:12">
+      <c r="A16" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B16">
         <v>16001</v>
@@ -1975,31 +2027,34 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
         <v>16001</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="H16" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="21">
-        <v>0</v>
-      </c>
-      <c r="K16" s="21">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="16" t="s">
-        <v>40</v>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B17">
         <v>16002</v>
@@ -2010,31 +2065,34 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
         <v>16002</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
+      <c r="H17" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="21">
-        <v>0</v>
-      </c>
-      <c r="K17" s="21">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="16" t="s">
-        <v>41</v>
+    <row r="18" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B18">
         <v>16003</v>
@@ -2045,31 +2103,34 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18">
         <v>16003</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
+      <c r="H18" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="21">
-        <v>0</v>
-      </c>
-      <c r="K18" s="21">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="23">
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="16" t="s">
-        <v>42</v>
+    <row r="19" spans="1:12">
+      <c r="A19" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B19">
         <v>16004</v>
@@ -2080,31 +2141,34 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19">
         <v>16004</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+      <c r="H19" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="21">
-        <v>0</v>
-      </c>
-      <c r="K19" s="21">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="16" t="s">
-        <v>43</v>
+    <row r="20" spans="1:12">
+      <c r="A20" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B20">
         <v>16005</v>
@@ -2115,61 +2179,105 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20">
         <v>16005</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
+      <c r="H20" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="21">
-        <v>0</v>
-      </c>
-      <c r="K20" s="21">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="23">
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>10000</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
         <v>31</v>
       </c>
-      <c r="C21">
+      <c r="G21">
+        <v>12000</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>12080</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
         <v>5000</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21">
-        <v>15001</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
         <v>31</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>5001</v>
-      </c>
-      <c r="J21" s="21">
-        <v>25001</v>
-      </c>
-      <c r="K21" s="21">
-        <v>35001</v>
+      <c r="G22">
+        <v>20001</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
